--- a/data/pca/factorExposure/factorExposure_2015-03-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02363909936989405</v>
+        <v>0.01266635059457387</v>
       </c>
       <c r="C2">
-        <v>0.02751121144240428</v>
+        <v>0.0541736522929481</v>
       </c>
       <c r="D2">
-        <v>-0.1503949988102764</v>
+        <v>-0.1193166530060598</v>
       </c>
       <c r="E2">
-        <v>-0.06158118927165156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.05353928420226611</v>
+      </c>
+      <c r="F2">
+        <v>0.0352836250375763</v>
+      </c>
+      <c r="G2">
+        <v>-0.1500853788219154</v>
+      </c>
+      <c r="H2">
+        <v>0.04513824856763576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04813757235556048</v>
+        <v>0.02372204906505139</v>
       </c>
       <c r="C4">
-        <v>0.07651216053854459</v>
+        <v>0.1130068432749529</v>
       </c>
       <c r="D4">
-        <v>-0.1062117838699023</v>
+        <v>-0.1123167110841535</v>
       </c>
       <c r="E4">
-        <v>-0.1161294946053416</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.05311677048775231</v>
+      </c>
+      <c r="F4">
+        <v>0.09341397273406488</v>
+      </c>
+      <c r="G4">
+        <v>-0.0204002296830355</v>
+      </c>
+      <c r="H4">
+        <v>-0.07545441243229728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03049781810230461</v>
+        <v>0.03447065572705445</v>
       </c>
       <c r="C6">
-        <v>0.0172286952437075</v>
+        <v>0.03773379628743511</v>
       </c>
       <c r="D6">
-        <v>-0.1116347804686564</v>
+        <v>-0.09668110474354727</v>
       </c>
       <c r="E6">
-        <v>-0.07392905056710029</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.08678190043355033</v>
+      </c>
+      <c r="F6">
+        <v>0.04204903733009345</v>
+      </c>
+      <c r="G6">
+        <v>0.0008855577393799198</v>
+      </c>
+      <c r="H6">
+        <v>0.009871162890205357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0007046248156302302</v>
+        <v>0.00747736999993685</v>
       </c>
       <c r="C7">
-        <v>0.02596299284773777</v>
+        <v>0.04202045127310153</v>
       </c>
       <c r="D7">
-        <v>-0.1053885422734245</v>
+        <v>-0.09241997832563865</v>
       </c>
       <c r="E7">
-        <v>-0.0422983659172534</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.07880600453620702</v>
+      </c>
+      <c r="F7">
+        <v>0.01218006974459103</v>
+      </c>
+      <c r="G7">
+        <v>0.01013024056190373</v>
+      </c>
+      <c r="H7">
+        <v>-0.02135815801951745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.001062101889252887</v>
+        <v>-0.005021484523359574</v>
       </c>
       <c r="C8">
-        <v>0.02676120118771195</v>
+        <v>0.03795963189712434</v>
       </c>
       <c r="D8">
-        <v>-0.07668556527413455</v>
+        <v>-0.06096783713300329</v>
       </c>
       <c r="E8">
-        <v>-0.05839402652609682</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.04853272409586833</v>
+      </c>
+      <c r="F8">
+        <v>0.05100294250054491</v>
+      </c>
+      <c r="G8">
+        <v>-0.07412956408362735</v>
+      </c>
+      <c r="H8">
+        <v>-0.04736529909028249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03781628646834004</v>
+        <v>0.01708136625977026</v>
       </c>
       <c r="C9">
-        <v>0.06657431413013994</v>
+        <v>0.0929228650873823</v>
       </c>
       <c r="D9">
-        <v>-0.1103585421625642</v>
+        <v>-0.09902825566273095</v>
       </c>
       <c r="E9">
-        <v>-0.09454123080054876</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.04511305459616631</v>
+      </c>
+      <c r="F9">
+        <v>0.06065095707759852</v>
+      </c>
+      <c r="G9">
+        <v>-0.004779314755604323</v>
+      </c>
+      <c r="H9">
+        <v>-0.02595052250227361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1950339949943795</v>
+        <v>0.2438632185219945</v>
       </c>
       <c r="C10">
-        <v>-0.1563295203209194</v>
+        <v>-0.09329890436583746</v>
       </c>
       <c r="D10">
-        <v>0.0428921762309007</v>
+        <v>0.01586107110702062</v>
       </c>
       <c r="E10">
-        <v>-0.03021506249826893</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02462989582496077</v>
+      </c>
+      <c r="F10">
+        <v>0.03959471174602974</v>
+      </c>
+      <c r="G10">
+        <v>0.00367235293606076</v>
+      </c>
+      <c r="H10">
+        <v>0.006352815389917822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0146536429989836</v>
+        <v>0.01091981955990348</v>
       </c>
       <c r="C11">
-        <v>0.0431435904430525</v>
+        <v>0.06109753811739267</v>
       </c>
       <c r="D11">
-        <v>-0.04590939902489689</v>
+        <v>-0.03854051551321159</v>
       </c>
       <c r="E11">
-        <v>0.006139874804759273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.03642229965138937</v>
+      </c>
+      <c r="F11">
+        <v>-0.01185835611060296</v>
+      </c>
+      <c r="G11">
+        <v>0.005098001362198878</v>
+      </c>
+      <c r="H11">
+        <v>-0.01956841206156475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01384592669026071</v>
+        <v>0.01096035450627157</v>
       </c>
       <c r="C12">
-        <v>0.04268897340166392</v>
+        <v>0.05196055431567684</v>
       </c>
       <c r="D12">
-        <v>-0.06185417506816215</v>
+        <v>-0.04624349678608228</v>
       </c>
       <c r="E12">
-        <v>-0.01150481750535204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03181172870128008</v>
+      </c>
+      <c r="F12">
+        <v>-0.01376713714324183</v>
+      </c>
+      <c r="G12">
+        <v>0.01536056839442657</v>
+      </c>
+      <c r="H12">
+        <v>0.01773246417991879</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01007291313791893</v>
+        <v>0.005064791158139206</v>
       </c>
       <c r="C13">
-        <v>0.02765188536387434</v>
+        <v>0.06055537482039003</v>
       </c>
       <c r="D13">
-        <v>-0.1327236149903398</v>
+        <v>-0.1541038352956731</v>
       </c>
       <c r="E13">
-        <v>-0.07971280752701979</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.07772299992512798</v>
+      </c>
+      <c r="F13">
+        <v>0.03819014710022182</v>
+      </c>
+      <c r="G13">
+        <v>-0.0635286661669668</v>
+      </c>
+      <c r="H13">
+        <v>0.06531234366301639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.007696213976577644</v>
+        <v>0.003962802682648114</v>
       </c>
       <c r="C14">
-        <v>0.01688291058037034</v>
+        <v>0.03487083298264412</v>
       </c>
       <c r="D14">
-        <v>-0.08060109317054168</v>
+        <v>-0.09111192717650458</v>
       </c>
       <c r="E14">
-        <v>-0.03955329824561032</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.08541779441276592</v>
+      </c>
+      <c r="F14">
+        <v>0.03055891152453774</v>
+      </c>
+      <c r="G14">
+        <v>-0.02212340372033057</v>
+      </c>
+      <c r="H14">
+        <v>0.03255474498801146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003110505158382883</v>
+        <v>-0.003238531518800509</v>
       </c>
       <c r="C15">
-        <v>0.0130243744731116</v>
+        <v>0.03102660340519404</v>
       </c>
       <c r="D15">
-        <v>-0.04603548617919457</v>
+        <v>-0.05950988575465425</v>
       </c>
       <c r="E15">
-        <v>-0.01254359592422308</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.03736410778527059</v>
+      </c>
+      <c r="F15">
+        <v>0.008010604137709936</v>
+      </c>
+      <c r="G15">
+        <v>-0.02579702488986691</v>
+      </c>
+      <c r="H15">
+        <v>-0.01555314265635776</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01432027823917542</v>
+        <v>0.0104950359089945</v>
       </c>
       <c r="C16">
-        <v>0.03942856558568454</v>
+        <v>0.0531139095347481</v>
       </c>
       <c r="D16">
-        <v>-0.05176773761163218</v>
+        <v>-0.04175098971303289</v>
       </c>
       <c r="E16">
-        <v>-0.006934376054039282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.03825447424535498</v>
+      </c>
+      <c r="F16">
+        <v>-0.006254453785170763</v>
+      </c>
+      <c r="G16">
+        <v>0.01459695412772104</v>
+      </c>
+      <c r="H16">
+        <v>-0.006689348779343231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.002954659292707154</v>
+        <v>-0.000800360388915018</v>
       </c>
       <c r="C19">
-        <v>0.02231090264106857</v>
+        <v>0.0184213840636648</v>
       </c>
       <c r="D19">
-        <v>-0.07233657242026244</v>
+        <v>-0.0394804908568434</v>
       </c>
       <c r="E19">
-        <v>-0.03568667171314088</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.001521837469665641</v>
+      </c>
+      <c r="F19">
+        <v>0.004170994630091887</v>
+      </c>
+      <c r="G19">
+        <v>-0.02070523658285975</v>
+      </c>
+      <c r="H19">
+        <v>0.0184129327467923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003445834335445052</v>
+        <v>0.006046601791681899</v>
       </c>
       <c r="C20">
-        <v>0.02609378713081792</v>
+        <v>0.04479592001958587</v>
       </c>
       <c r="D20">
-        <v>-0.07105791254190545</v>
+        <v>-0.0781267030584895</v>
       </c>
       <c r="E20">
-        <v>-0.05524433243919205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.04778250334656728</v>
+      </c>
+      <c r="F20">
+        <v>0.02637339143973823</v>
+      </c>
+      <c r="G20">
+        <v>0.01308930697992238</v>
+      </c>
+      <c r="H20">
+        <v>-0.02764242183341471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005495922288563869</v>
+        <v>0.00355497846777394</v>
       </c>
       <c r="C21">
-        <v>0.0294985523786855</v>
+        <v>0.0479201597616831</v>
       </c>
       <c r="D21">
-        <v>-0.1227507013286715</v>
+        <v>-0.1159088218253766</v>
       </c>
       <c r="E21">
-        <v>-0.1223797057371373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.06422473895021351</v>
+      </c>
+      <c r="F21">
+        <v>0.09303369795708655</v>
+      </c>
+      <c r="G21">
+        <v>-0.0797156732215009</v>
+      </c>
+      <c r="H21">
+        <v>0.08785474925048715</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004247544068356776</v>
+        <v>-0.006062587444564523</v>
       </c>
       <c r="C22">
-        <v>0.05258137036696488</v>
+        <v>0.08344158121153512</v>
       </c>
       <c r="D22">
-        <v>-0.2166523880432511</v>
+        <v>-0.2166772968104239</v>
       </c>
       <c r="E22">
-        <v>-0.09255406063218422</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.04837141733561084</v>
+      </c>
+      <c r="F22">
+        <v>0.03804637874977791</v>
+      </c>
+      <c r="G22">
+        <v>-0.2406496318211238</v>
+      </c>
+      <c r="H22">
+        <v>-0.1506501345085275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004766562745108634</v>
+        <v>-0.002972116037864463</v>
       </c>
       <c r="C23">
-        <v>0.05282692053032715</v>
+        <v>0.08518511450128455</v>
       </c>
       <c r="D23">
-        <v>-0.2153937853495086</v>
+        <v>-0.2200929764966834</v>
       </c>
       <c r="E23">
-        <v>-0.09261094258595422</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.04509544404118575</v>
+      </c>
+      <c r="F23">
+        <v>0.04114723910467168</v>
+      </c>
+      <c r="G23">
+        <v>-0.234680229790088</v>
+      </c>
+      <c r="H23">
+        <v>-0.1437136706360918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01972008243667961</v>
+        <v>0.01169190846507643</v>
       </c>
       <c r="C24">
-        <v>0.06179260523051139</v>
+        <v>0.07121333512495685</v>
       </c>
       <c r="D24">
-        <v>-0.06616495775092276</v>
+        <v>-0.04351598349311954</v>
       </c>
       <c r="E24">
-        <v>-0.01057806789789541</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.04624707199290688</v>
+      </c>
+      <c r="F24">
+        <v>-0.006385232868929241</v>
+      </c>
+      <c r="G24">
+        <v>-0.0026532304598015</v>
+      </c>
+      <c r="H24">
+        <v>-0.009857320159269633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02071649048360034</v>
+        <v>0.01634101751055079</v>
       </c>
       <c r="C25">
-        <v>0.05338370551184585</v>
+        <v>0.06589128002430603</v>
       </c>
       <c r="D25">
-        <v>-0.05814642200575135</v>
+        <v>-0.04659997658928054</v>
       </c>
       <c r="E25">
-        <v>-0.01532538529188832</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03071394110442366</v>
+      </c>
+      <c r="F25">
+        <v>-0.004980947256760578</v>
+      </c>
+      <c r="G25">
+        <v>0.01149628142247162</v>
+      </c>
+      <c r="H25">
+        <v>-0.006096161520327648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007832762588918577</v>
+        <v>0.01719484357469887</v>
       </c>
       <c r="C26">
-        <v>0.01714209104602207</v>
+        <v>0.03151939516144644</v>
       </c>
       <c r="D26">
-        <v>-0.06453599851650986</v>
+        <v>-0.05492993749056919</v>
       </c>
       <c r="E26">
-        <v>-0.04227145122783076</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.06061727390927835</v>
+      </c>
+      <c r="F26">
+        <v>0.04595968544928972</v>
+      </c>
+      <c r="G26">
+        <v>-0.03113723120798412</v>
+      </c>
+      <c r="H26">
+        <v>0.001495691144325699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.276401585137765</v>
+        <v>0.3128481783494321</v>
       </c>
       <c r="C28">
-        <v>-0.1733450343213686</v>
+        <v>-0.09394138710571148</v>
       </c>
       <c r="D28">
-        <v>0.0124814581708257</v>
+        <v>0.01850604805875694</v>
       </c>
       <c r="E28">
-        <v>-0.03222238450565256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05350640680358756</v>
+      </c>
+      <c r="F28">
+        <v>0.04636200136840091</v>
+      </c>
+      <c r="G28">
+        <v>-0.06553159320032872</v>
+      </c>
+      <c r="H28">
+        <v>-0.01987271101557141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.003500625149703061</v>
+        <v>0.002202824584291801</v>
       </c>
       <c r="C29">
-        <v>0.02099985159809359</v>
+        <v>0.04182113699204728</v>
       </c>
       <c r="D29">
-        <v>-0.07629369008035466</v>
+        <v>-0.09573565623024584</v>
       </c>
       <c r="E29">
-        <v>-0.04716752875354967</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.09835474492332361</v>
+      </c>
+      <c r="F29">
+        <v>0.03500919337640331</v>
+      </c>
+      <c r="G29">
+        <v>-0.01648725194533249</v>
+      </c>
+      <c r="H29">
+        <v>0.0423211576565125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02913333287330138</v>
+        <v>0.01894919983200433</v>
       </c>
       <c r="C30">
-        <v>0.07099484604042794</v>
+        <v>0.09883536459064482</v>
       </c>
       <c r="D30">
-        <v>-0.1507491074193286</v>
+        <v>-0.1162761767519473</v>
       </c>
       <c r="E30">
-        <v>-0.06422169924149329</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.08592270023982312</v>
+      </c>
+      <c r="F30">
+        <v>0.01580923720759324</v>
+      </c>
+      <c r="G30">
+        <v>-0.01927492045285564</v>
+      </c>
+      <c r="H30">
+        <v>-0.0471974562790053</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03400573931515417</v>
+        <v>0.01114823982381967</v>
       </c>
       <c r="C31">
-        <v>0.08593566698034688</v>
+        <v>0.09572688451964914</v>
       </c>
       <c r="D31">
-        <v>-0.05700816198652344</v>
+        <v>-0.03207300788721862</v>
       </c>
       <c r="E31">
-        <v>-0.02577496836686475</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02540153879182036</v>
+      </c>
+      <c r="F31">
+        <v>0.01602681050132309</v>
+      </c>
+      <c r="G31">
+        <v>-0.01712615203547534</v>
+      </c>
+      <c r="H31">
+        <v>-0.004896365342945943</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01542780722502449</v>
+        <v>0.0135570974702738</v>
       </c>
       <c r="C32">
-        <v>0.04171190310987798</v>
+        <v>0.05079599290918178</v>
       </c>
       <c r="D32">
-        <v>-0.08627877630920117</v>
+        <v>-0.07689150137297361</v>
       </c>
       <c r="E32">
-        <v>-0.07226172413894463</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01291737219484949</v>
+      </c>
+      <c r="F32">
+        <v>0.04848562725978926</v>
+      </c>
+      <c r="G32">
+        <v>-0.03394747414494311</v>
+      </c>
+      <c r="H32">
+        <v>0.02065248530762866</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.00676752813923167</v>
+        <v>0.008549907730024123</v>
       </c>
       <c r="C33">
-        <v>0.04156806213288221</v>
+        <v>0.06441652805795736</v>
       </c>
       <c r="D33">
-        <v>-0.1076121432161996</v>
+        <v>-0.1069973237384356</v>
       </c>
       <c r="E33">
-        <v>-0.06413200360957161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.05838163972098223</v>
+      </c>
+      <c r="F33">
+        <v>0.02839345102598694</v>
+      </c>
+      <c r="G33">
+        <v>-0.01224493661387576</v>
+      </c>
+      <c r="H33">
+        <v>-0.001637914891172466</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01670603167854318</v>
+        <v>0.01015230589886203</v>
       </c>
       <c r="C34">
-        <v>0.06226621469447489</v>
+        <v>0.0640125457572516</v>
       </c>
       <c r="D34">
-        <v>-0.06047951838654744</v>
+        <v>-0.02471682755602742</v>
       </c>
       <c r="E34">
-        <v>0.03241841267156833</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03625157177850832</v>
+      </c>
+      <c r="F34">
+        <v>-0.03903799504429736</v>
+      </c>
+      <c r="G34">
+        <v>-0.00345906763197261</v>
+      </c>
+      <c r="H34">
+        <v>0.002096042911655662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0001554645863633157</v>
+        <v>0.003942155708938124</v>
       </c>
       <c r="C35">
-        <v>-7.624676868062185e-05</v>
+        <v>0.01522926901087003</v>
       </c>
       <c r="D35">
-        <v>0.0001082883440267897</v>
+        <v>-0.03431388914636418</v>
       </c>
       <c r="E35">
-        <v>8.669843361817865e-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.0203006526558533</v>
+      </c>
+      <c r="F35">
+        <v>0.0173536454465664</v>
+      </c>
+      <c r="G35">
+        <v>0.001571576096768361</v>
+      </c>
+      <c r="H35">
+        <v>0.007096539393477374</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.009693475330071529</v>
+        <v>0.01202416758492683</v>
       </c>
       <c r="C36">
-        <v>0.008257374643599219</v>
+        <v>0.02460719618214825</v>
       </c>
       <c r="D36">
-        <v>-0.06264969448921637</v>
+        <v>-0.06310774974742731</v>
       </c>
       <c r="E36">
-        <v>-0.05992692949236181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.04920538289972868</v>
+      </c>
+      <c r="F36">
+        <v>0.04792113065089928</v>
+      </c>
+      <c r="G36">
+        <v>-0.01848602386086987</v>
+      </c>
+      <c r="H36">
+        <v>-7.180316189041309e-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005484786343078423</v>
+        <v>0.01120366434855296</v>
       </c>
       <c r="C38">
-        <v>0.00873522280086848</v>
+        <v>0.02881594917331628</v>
       </c>
       <c r="D38">
-        <v>-0.09026692172127306</v>
+        <v>-0.0878108954730113</v>
       </c>
       <c r="E38">
-        <v>-0.0347891721890941</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.03364537152837335</v>
+      </c>
+      <c r="F38">
+        <v>0.007105767670080065</v>
+      </c>
+      <c r="G38">
+        <v>-0.03459052525444387</v>
+      </c>
+      <c r="H38">
+        <v>-0.03679065984478697</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01359342671356179</v>
+        <v>0.00722713640413097</v>
       </c>
       <c r="C39">
-        <v>0.06266538173306362</v>
+        <v>0.08819502776870504</v>
       </c>
       <c r="D39">
-        <v>-0.1118502681340807</v>
+        <v>-0.08686550121339097</v>
       </c>
       <c r="E39">
-        <v>-0.0270666304883103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0817891493040713</v>
+      </c>
+      <c r="F39">
+        <v>-0.005344017274112438</v>
+      </c>
+      <c r="G39">
+        <v>-0.001502595293660878</v>
+      </c>
+      <c r="H39">
+        <v>-0.008314779420370705</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01793926461417015</v>
+        <v>0.01392970839061451</v>
       </c>
       <c r="C40">
-        <v>0.0265234820788571</v>
+        <v>0.04439079096197834</v>
       </c>
       <c r="D40">
-        <v>-0.122187945993082</v>
+        <v>-0.08649391891682982</v>
       </c>
       <c r="E40">
-        <v>-0.01797395199883812</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.07296190495523397</v>
+      </c>
+      <c r="F40">
+        <v>-0.03059485615894492</v>
+      </c>
+      <c r="G40">
+        <v>-0.08635650244097165</v>
+      </c>
+      <c r="H40">
+        <v>0.02007710084583792</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01111105446419155</v>
+        <v>0.01875726087793406</v>
       </c>
       <c r="C41">
-        <v>0.005685330939177356</v>
+        <v>0.02406740124883451</v>
       </c>
       <c r="D41">
-        <v>-0.03192915763188316</v>
+        <v>-0.04224308420425711</v>
       </c>
       <c r="E41">
-        <v>-0.02930643357444372</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01316544538712498</v>
+      </c>
+      <c r="F41">
+        <v>0.02008888314386539</v>
+      </c>
+      <c r="G41">
+        <v>-0.009704098340976014</v>
+      </c>
+      <c r="H41">
+        <v>-0.003851717864150791</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.001184058207686088</v>
+        <v>0.009960354344452414</v>
       </c>
       <c r="C43">
-        <v>0.001671046152632558</v>
+        <v>0.0169633468311392</v>
       </c>
       <c r="D43">
-        <v>-0.04669442615511173</v>
+        <v>-0.05125987322143005</v>
       </c>
       <c r="E43">
-        <v>-0.03237028770540116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.02650820953744798</v>
+      </c>
+      <c r="F43">
+        <v>0.02260060343870062</v>
+      </c>
+      <c r="G43">
+        <v>-0.00505073490115083</v>
+      </c>
+      <c r="H43">
+        <v>-0.01666449404836442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02015976194097584</v>
+        <v>0.01120219706316162</v>
       </c>
       <c r="C44">
-        <v>0.02698381526927403</v>
+        <v>0.05189177959472176</v>
       </c>
       <c r="D44">
-        <v>-0.09549663555096029</v>
+        <v>-0.09769575745480008</v>
       </c>
       <c r="E44">
-        <v>-0.078676944910729</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.06919855890884036</v>
+      </c>
+      <c r="F44">
+        <v>0.03624537127538142</v>
+      </c>
+      <c r="G44">
+        <v>-0.040825126237475</v>
+      </c>
+      <c r="H44">
+        <v>-0.02825161442312673</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.002532818313194296</v>
+        <v>-0.001320689697330071</v>
       </c>
       <c r="C46">
-        <v>0.03025016815503097</v>
+        <v>0.04319078483269368</v>
       </c>
       <c r="D46">
-        <v>-0.08183340498394981</v>
+        <v>-0.06960865146274316</v>
       </c>
       <c r="E46">
-        <v>-0.0438148949764923</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.07424623462592919</v>
+      </c>
+      <c r="F46">
+        <v>0.03304450350265734</v>
+      </c>
+      <c r="G46">
+        <v>-0.0247520508268727</v>
+      </c>
+      <c r="H46">
+        <v>-0.0005543275223931649</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06884354779877247</v>
+        <v>0.03162449381638024</v>
       </c>
       <c r="C47">
-        <v>0.1152947330299906</v>
+        <v>0.1261071731696734</v>
       </c>
       <c r="D47">
-        <v>-0.05904152380729558</v>
+        <v>-0.02203614428877988</v>
       </c>
       <c r="E47">
-        <v>-0.02509120053825246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.002104149836351426</v>
+      </c>
+      <c r="F47">
+        <v>-0.006394503698933457</v>
+      </c>
+      <c r="G47">
+        <v>0.01993105338574959</v>
+      </c>
+      <c r="H47">
+        <v>-0.004300958814428484</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.009612592805001794</v>
+        <v>0.01462192702847208</v>
       </c>
       <c r="C48">
-        <v>0.01828996916005895</v>
+        <v>0.03527798823267067</v>
       </c>
       <c r="D48">
-        <v>-0.06704090049602131</v>
+        <v>-0.06912609169630192</v>
       </c>
       <c r="E48">
-        <v>-0.06332068584645201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.04413744075064525</v>
+      </c>
+      <c r="F48">
+        <v>0.05483875660783571</v>
+      </c>
+      <c r="G48">
+        <v>-0.02549394369440152</v>
+      </c>
+      <c r="H48">
+        <v>-0.009796054725710223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.0018687458112269</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.0009240274362568596</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.001058091987947636</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.001757517367591058</v>
+      </c>
+      <c r="F49">
+        <v>0.001127039948421579</v>
+      </c>
+      <c r="G49">
+        <v>0.001756874646201116</v>
+      </c>
+      <c r="H49">
+        <v>0.001287304822068334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03070417089836927</v>
+        <v>0.01469493520714725</v>
       </c>
       <c r="C50">
-        <v>0.05962798145693908</v>
+        <v>0.07652182126164855</v>
       </c>
       <c r="D50">
-        <v>-0.06181536047046724</v>
+        <v>-0.04516369858053227</v>
       </c>
       <c r="E50">
-        <v>-0.01777931999765757</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02744418445111957</v>
+      </c>
+      <c r="F50">
+        <v>0.007947713740510067</v>
+      </c>
+      <c r="G50">
+        <v>-0.01595836868633854</v>
+      </c>
+      <c r="H50">
+        <v>-0.01584290061355209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004509287606138009</v>
+        <v>-0.004008362924460828</v>
       </c>
       <c r="C51">
-        <v>0.006758576233922482</v>
+        <v>0.01951490393144184</v>
       </c>
       <c r="D51">
-        <v>-0.06458120136927498</v>
+        <v>-0.04758086520841399</v>
       </c>
       <c r="E51">
-        <v>-0.03496334939307551</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.05323205065094645</v>
+      </c>
+      <c r="F51">
+        <v>0.0350904985973222</v>
+      </c>
+      <c r="G51">
+        <v>-0.04917541965591519</v>
+      </c>
+      <c r="H51">
+        <v>0.0005450200477694834</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.10411217850267</v>
+        <v>0.06052976758025245</v>
       </c>
       <c r="C53">
-        <v>0.1348891530600986</v>
+        <v>0.1620563091225315</v>
       </c>
       <c r="D53">
-        <v>0.006306535601244685</v>
+        <v>0.02221382626454434</v>
       </c>
       <c r="E53">
-        <v>-0.03603606806199336</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03045101532354061</v>
+      </c>
+      <c r="F53">
+        <v>0.04154205654399022</v>
+      </c>
+      <c r="G53">
+        <v>-0.007316064659660634</v>
+      </c>
+      <c r="H53">
+        <v>-0.01180578197866807</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.008586913663914933</v>
+        <v>0.01206597280217248</v>
       </c>
       <c r="C54">
-        <v>0.02401510517356694</v>
+        <v>0.04223888637966746</v>
       </c>
       <c r="D54">
-        <v>-0.09212092353430629</v>
+        <v>-0.07635117632516514</v>
       </c>
       <c r="E54">
-        <v>-0.02830747089856017</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.04240770975856904</v>
+      </c>
+      <c r="F54">
+        <v>0.005024349108807045</v>
+      </c>
+      <c r="G54">
+        <v>-0.02478451505499312</v>
+      </c>
+      <c r="H54">
+        <v>-0.0246250021180996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08564131728736615</v>
+        <v>0.04237966152103567</v>
       </c>
       <c r="C55">
-        <v>0.1136737210577128</v>
+        <v>0.1277798081877474</v>
       </c>
       <c r="D55">
-        <v>-0.0006247998194196432</v>
+        <v>0.04422758271363878</v>
       </c>
       <c r="E55">
-        <v>0.005072708147673506</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.006277359474852483</v>
+      </c>
+      <c r="F55">
+        <v>0.003614545281581751</v>
+      </c>
+      <c r="G55">
+        <v>-0.01600030750449495</v>
+      </c>
+      <c r="H55">
+        <v>0.00467383412292798</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1267770445654751</v>
+        <v>0.06174568919850689</v>
       </c>
       <c r="C56">
-        <v>0.1574081557593705</v>
+        <v>0.190900854449209</v>
       </c>
       <c r="D56">
-        <v>-0.02076594712910463</v>
+        <v>0.03953634787250224</v>
       </c>
       <c r="E56">
-        <v>0.008616139019386897</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03288636122496757</v>
+      </c>
+      <c r="F56">
+        <v>0.005358281378054029</v>
+      </c>
+      <c r="G56">
+        <v>-0.06797054302552592</v>
+      </c>
+      <c r="H56">
+        <v>-0.01257962672502537</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.002186678438438961</v>
+        <v>0.008949859573920093</v>
       </c>
       <c r="C58">
-        <v>0.0167684424454824</v>
+        <v>0.06681432132778081</v>
       </c>
       <c r="D58">
-        <v>-0.2193432799657099</v>
+        <v>-0.2667050572911988</v>
       </c>
       <c r="E58">
-        <v>-0.1744770022048765</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.07323769538058615</v>
+      </c>
+      <c r="F58">
+        <v>0.1401955653511112</v>
+      </c>
+      <c r="G58">
+        <v>-0.1463899984885357</v>
+      </c>
+      <c r="H58">
+        <v>-0.1149685651204421</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2003868971439338</v>
+        <v>0.2582812291766682</v>
       </c>
       <c r="C59">
-        <v>-0.1258435953014452</v>
+        <v>-0.05814181261422097</v>
       </c>
       <c r="D59">
-        <v>-0.0471882510497311</v>
+        <v>-0.04225075342334016</v>
       </c>
       <c r="E59">
-        <v>-0.03709432213247904</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01656746362382503</v>
+      </c>
+      <c r="F59">
+        <v>0.01733598065734648</v>
+      </c>
+      <c r="G59">
+        <v>-0.02820828055597178</v>
+      </c>
+      <c r="H59">
+        <v>0.03096997105469555</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1771701515690322</v>
+        <v>0.1537846030194215</v>
       </c>
       <c r="C60">
-        <v>0.1051579800319342</v>
+        <v>0.1631795025292271</v>
       </c>
       <c r="D60">
-        <v>-0.1237069923466315</v>
+        <v>-0.03935781257630293</v>
       </c>
       <c r="E60">
-        <v>0.06396386048506324</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1093235519527211</v>
+      </c>
+      <c r="F60">
+        <v>-0.1919737878208433</v>
+      </c>
+      <c r="G60">
+        <v>0.2505115889122137</v>
+      </c>
+      <c r="H60">
+        <v>0.1455057692318995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02423569532269258</v>
+        <v>0.01487242417281192</v>
       </c>
       <c r="C61">
-        <v>0.05889533121026404</v>
+        <v>0.08249622322971728</v>
       </c>
       <c r="D61">
-        <v>-0.08503401366950751</v>
+        <v>-0.06318285402208548</v>
       </c>
       <c r="E61">
-        <v>-0.01115769354093491</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.05820352965134153</v>
+      </c>
+      <c r="F61">
+        <v>-0.01381235513065431</v>
+      </c>
+      <c r="G61">
+        <v>0.001450454113535686</v>
+      </c>
+      <c r="H61">
+        <v>0.00273939593355326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01129915643038123</v>
+        <v>0.01588267333617956</v>
       </c>
       <c r="C63">
-        <v>0.02611832047134054</v>
+        <v>0.04530175187032208</v>
       </c>
       <c r="D63">
-        <v>-0.07791788156380776</v>
+        <v>-0.05186255490635828</v>
       </c>
       <c r="E63">
-        <v>-0.03589366154413991</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.07797007702039505</v>
+      </c>
+      <c r="F63">
+        <v>0.02170039704349014</v>
+      </c>
+      <c r="G63">
+        <v>-0.009150312605439763</v>
+      </c>
+      <c r="H63">
+        <v>-0.008580661384371108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04876793263196463</v>
+        <v>0.01731475991240666</v>
       </c>
       <c r="C64">
-        <v>0.090907318586226</v>
+        <v>0.1044047003651598</v>
       </c>
       <c r="D64">
-        <v>-0.02703304181366089</v>
+        <v>-0.01482663786075517</v>
       </c>
       <c r="E64">
-        <v>-0.0292563240598318</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.03730314210230155</v>
+      </c>
+      <c r="F64">
+        <v>0.01883062312323181</v>
+      </c>
+      <c r="G64">
+        <v>0.02960157362395332</v>
+      </c>
+      <c r="H64">
+        <v>-0.02669800105617094</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02688771199081363</v>
+        <v>0.02646119669773019</v>
       </c>
       <c r="C65">
-        <v>0.01861446395964711</v>
+        <v>0.04511469351741076</v>
       </c>
       <c r="D65">
-        <v>-0.09646605722001986</v>
+        <v>-0.09657099184429256</v>
       </c>
       <c r="E65">
-        <v>-0.03598758214444661</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.06602479032683505</v>
+      </c>
+      <c r="F65">
+        <v>-0.008647210355846362</v>
+      </c>
+      <c r="G65">
+        <v>0.04910760698032011</v>
+      </c>
+      <c r="H65">
+        <v>-0.02232084468064898</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02040336029835736</v>
+        <v>0.008252607684380643</v>
       </c>
       <c r="C66">
-        <v>0.07446374288467197</v>
+        <v>0.1089768155495677</v>
       </c>
       <c r="D66">
-        <v>-0.1312365343224122</v>
+        <v>-0.1105987511306994</v>
       </c>
       <c r="E66">
-        <v>-0.02751951471280633</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.07662663275425304</v>
+      </c>
+      <c r="F66">
+        <v>-0.006254112156139024</v>
+      </c>
+      <c r="G66">
+        <v>-0.02087706286391709</v>
+      </c>
+      <c r="H66">
+        <v>-0.01735652041248032</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01895729363372042</v>
+        <v>0.02036876453639253</v>
       </c>
       <c r="C67">
-        <v>0.02081884991362115</v>
+        <v>0.03664655144036554</v>
       </c>
       <c r="D67">
-        <v>-0.05711650533114298</v>
+        <v>-0.04876717701768837</v>
       </c>
       <c r="E67">
-        <v>-7.812483857526833e-05</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.0304151282240373</v>
+      </c>
+      <c r="F67">
+        <v>-0.02189634436998266</v>
+      </c>
+      <c r="G67">
+        <v>-0.0112381497412635</v>
+      </c>
+      <c r="H67">
+        <v>-0.02147792224320092</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.213697398289785</v>
+        <v>0.2787940651736109</v>
       </c>
       <c r="C68">
-        <v>-0.1380634049745265</v>
+        <v>-0.07063439642509478</v>
       </c>
       <c r="D68">
-        <v>-0.02065393918081786</v>
+        <v>-0.02819851562161962</v>
       </c>
       <c r="E68">
-        <v>-0.02554355734733684</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.003016926535280706</v>
+      </c>
+      <c r="F68">
+        <v>0.02574909942193508</v>
+      </c>
+      <c r="G68">
+        <v>-0.05427044992697185</v>
+      </c>
+      <c r="H68">
+        <v>-0.006216301182622583</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04976377470847487</v>
+        <v>0.01530237332686871</v>
       </c>
       <c r="C69">
-        <v>0.1201846975733729</v>
+        <v>0.1144210289912516</v>
       </c>
       <c r="D69">
-        <v>-0.08019062301663087</v>
+        <v>-0.01988052128914684</v>
       </c>
       <c r="E69">
-        <v>-0.02454340963246329</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01490053621611284</v>
+      </c>
+      <c r="F69">
+        <v>-0.01684764309037719</v>
+      </c>
+      <c r="G69">
+        <v>0.01183374860512383</v>
+      </c>
+      <c r="H69">
+        <v>0.0106796984069617</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2316984646322709</v>
+        <v>0.2716947600454128</v>
       </c>
       <c r="C71">
-        <v>-0.1606223160971265</v>
+        <v>-0.08665373241699022</v>
       </c>
       <c r="D71">
-        <v>-0.01285190763835767</v>
+        <v>-0.006447747183835103</v>
       </c>
       <c r="E71">
-        <v>-0.004827664773510689</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.006755743221932798</v>
+      </c>
+      <c r="F71">
+        <v>0.01257643138438918</v>
+      </c>
+      <c r="G71">
+        <v>-0.04355604968618536</v>
+      </c>
+      <c r="H71">
+        <v>-0.02251634168942406</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09774987778471364</v>
+        <v>0.06440568931379223</v>
       </c>
       <c r="C72">
-        <v>0.07875920547310949</v>
+        <v>0.1252769983646151</v>
       </c>
       <c r="D72">
-        <v>-0.1147391886335295</v>
+        <v>-0.05404751498924779</v>
       </c>
       <c r="E72">
-        <v>-0.02128842895461126</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08343412600603181</v>
+      </c>
+      <c r="F72">
+        <v>-0.01969070403807876</v>
+      </c>
+      <c r="G72">
+        <v>0.03511065723949673</v>
+      </c>
+      <c r="H72">
+        <v>0.006948837886528215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1683910703613818</v>
+        <v>0.1572823853721769</v>
       </c>
       <c r="C73">
-        <v>0.08213839809731276</v>
+        <v>0.1617128649647664</v>
       </c>
       <c r="D73">
-        <v>-0.1948877978001255</v>
+        <v>-0.06169083816060872</v>
       </c>
       <c r="E73">
-        <v>0.1101790106821885</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2844323865404331</v>
+      </c>
+      <c r="F73">
+        <v>-0.2876194128864971</v>
+      </c>
+      <c r="G73">
+        <v>0.40781038832793</v>
+      </c>
+      <c r="H73">
+        <v>0.1440904914476177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09532705860978734</v>
+        <v>0.05150095211356332</v>
       </c>
       <c r="C74">
-        <v>0.1211752708109182</v>
+        <v>0.1407873005908016</v>
       </c>
       <c r="D74">
-        <v>0.04962732429484289</v>
+        <v>0.05055254088010201</v>
       </c>
       <c r="E74">
-        <v>-0.01475203226123961</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.02682662725052354</v>
+      </c>
+      <c r="F74">
+        <v>0.03217854171772527</v>
+      </c>
+      <c r="G74">
+        <v>0.006721911811660161</v>
+      </c>
+      <c r="H74">
+        <v>0.0009532183700125226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2111107114674376</v>
+        <v>0.1002355229313627</v>
       </c>
       <c r="C75">
-        <v>0.2163534142967831</v>
+        <v>0.2609469269210897</v>
       </c>
       <c r="D75">
-        <v>0.06108215867118966</v>
+        <v>0.1238585876926167</v>
       </c>
       <c r="E75">
-        <v>0.08871956299056699</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1148017944289934</v>
+      </c>
+      <c r="F75">
+        <v>-0.05026136697514352</v>
+      </c>
+      <c r="G75">
+        <v>-0.1043945854566956</v>
+      </c>
+      <c r="H75">
+        <v>-0.0840940061999205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1253243740772222</v>
+        <v>0.06003601397797395</v>
       </c>
       <c r="C76">
-        <v>0.1442567210818753</v>
+        <v>0.1755352371954805</v>
       </c>
       <c r="D76">
-        <v>0.00148782076194724</v>
+        <v>0.05402019609225229</v>
       </c>
       <c r="E76">
-        <v>0.01798493515928498</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.03725204668286315</v>
+      </c>
+      <c r="F76">
+        <v>-0.00366986672798633</v>
+      </c>
+      <c r="G76">
+        <v>-0.04414232873414226</v>
+      </c>
+      <c r="H76">
+        <v>-0.02053926100770933</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.01660930025606092</v>
+        <v>0.002800370790585654</v>
       </c>
       <c r="C77">
-        <v>0.07908654134467218</v>
+        <v>0.1202280048747275</v>
       </c>
       <c r="D77">
-        <v>-0.1931382392590799</v>
+        <v>-0.4816951256538247</v>
       </c>
       <c r="E77">
-        <v>-0.1179295520111865</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7783129241267803</v>
+      </c>
+      <c r="F77">
+        <v>-0.1715405483405899</v>
+      </c>
+      <c r="G77">
+        <v>0.2160901592072937</v>
+      </c>
+      <c r="H77">
+        <v>0.02052769463491895</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03275954583430928</v>
+        <v>0.02273322715954179</v>
       </c>
       <c r="C78">
-        <v>0.07405988940141638</v>
+        <v>0.09543666527580598</v>
       </c>
       <c r="D78">
-        <v>-0.1501215546122229</v>
+        <v>-0.08594601357592187</v>
       </c>
       <c r="E78">
-        <v>-0.0884982618363627</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.07918217624480202</v>
+      </c>
+      <c r="F78">
+        <v>0.04279674512360864</v>
+      </c>
+      <c r="G78">
+        <v>-0.08853184515410274</v>
+      </c>
+      <c r="H78">
+        <v>0.02553844201200439</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1052956465439145</v>
+        <v>0.05135248105150065</v>
       </c>
       <c r="C79">
-        <v>0.2086980986014383</v>
+        <v>0.2130343966152625</v>
       </c>
       <c r="D79">
-        <v>0.4786408345543305</v>
+        <v>0.1399123169844911</v>
       </c>
       <c r="E79">
-        <v>-0.7648876585063408</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.09412472159595603</v>
+      </c>
+      <c r="F79">
+        <v>0.7933117324161099</v>
+      </c>
+      <c r="G79">
+        <v>0.4169752978153627</v>
+      </c>
+      <c r="H79">
+        <v>0.0511901562471007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002287378392245324</v>
+        <v>0.007401759724052459</v>
       </c>
       <c r="C80">
-        <v>0.04697703112564144</v>
+        <v>0.04639990348663883</v>
       </c>
       <c r="D80">
-        <v>-0.04475331175692483</v>
+        <v>-0.02845355224908369</v>
       </c>
       <c r="E80">
-        <v>-0.003936689676255632</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.06128413856930705</v>
+      </c>
+      <c r="F80">
+        <v>-0.002465652101823973</v>
+      </c>
+      <c r="G80">
+        <v>-0.02990927658864014</v>
+      </c>
+      <c r="H80">
+        <v>0.08681221458762194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.103294737458566</v>
+        <v>0.03698580614577042</v>
       </c>
       <c r="C81">
-        <v>0.1393393478263849</v>
+        <v>0.1587809927609291</v>
       </c>
       <c r="D81">
-        <v>0.07628842054498824</v>
+        <v>0.07282263203078945</v>
       </c>
       <c r="E81">
-        <v>-0.001443019811687959</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.05797386280107152</v>
+      </c>
+      <c r="F81">
+        <v>0.05534170296082544</v>
+      </c>
+      <c r="G81">
+        <v>-0.07686868200034827</v>
+      </c>
+      <c r="H81">
+        <v>-0.0004180889233220415</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2110824669589786</v>
+        <v>0.08252857427948558</v>
       </c>
       <c r="C82">
-        <v>0.3117908045054485</v>
+        <v>0.297991609584333</v>
       </c>
       <c r="D82">
-        <v>0.1139962376206702</v>
+        <v>0.2234688618017255</v>
       </c>
       <c r="E82">
-        <v>0.2344458214281423</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1047366806107352</v>
+      </c>
+      <c r="F82">
+        <v>-0.1272438043896922</v>
+      </c>
+      <c r="G82">
+        <v>-0.1422251634464475</v>
+      </c>
+      <c r="H82">
+        <v>-0.00644528956474515</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01119093440385406</v>
+        <v>-0.007878404737531921</v>
       </c>
       <c r="C83">
-        <v>0.05190842419102743</v>
+        <v>0.02066472489815246</v>
       </c>
       <c r="D83">
-        <v>-0.01477733012164334</v>
+        <v>-0.02850180923791195</v>
       </c>
       <c r="E83">
-        <v>-0.04213949892499499</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.09059508104541872</v>
+      </c>
+      <c r="F83">
+        <v>0.08221519085745461</v>
+      </c>
+      <c r="G83">
+        <v>-0.3030666959528051</v>
+      </c>
+      <c r="H83">
+        <v>0.8809161424434467</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.0009324609631759349</v>
+        <v>-0.0037551211962584</v>
       </c>
       <c r="C84">
-        <v>0.002044164608432833</v>
+        <v>0.01701580578426415</v>
       </c>
       <c r="D84">
-        <v>-0.009141870709757713</v>
+        <v>-0.04317985048805455</v>
       </c>
       <c r="E84">
-        <v>0.0003865329172405993</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.01337977002996829</v>
+      </c>
+      <c r="F84">
+        <v>0.02837696634874019</v>
+      </c>
+      <c r="G84">
+        <v>-0.05012341212916117</v>
+      </c>
+      <c r="H84">
+        <v>-0.06247975168778485</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1296492183698421</v>
+        <v>0.05692977291864096</v>
       </c>
       <c r="C85">
-        <v>0.1519275143095892</v>
+        <v>0.1760685223096224</v>
       </c>
       <c r="D85">
-        <v>0.08154157596809951</v>
+        <v>0.1114819042172326</v>
       </c>
       <c r="E85">
-        <v>-0.01175048621806101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.01848988401083615</v>
+      </c>
+      <c r="F85">
+        <v>0.06259655653802303</v>
+      </c>
+      <c r="G85">
+        <v>-0.02290240430934161</v>
+      </c>
+      <c r="H85">
+        <v>-0.02186079935842492</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02431058843195803</v>
+        <v>0.01730976848056196</v>
       </c>
       <c r="C86">
-        <v>0.008186170393080405</v>
+        <v>0.04053427103743604</v>
       </c>
       <c r="D86">
-        <v>-0.1050826317046169</v>
+        <v>-0.1098703809114816</v>
       </c>
       <c r="E86">
-        <v>-0.04631011864902121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.001586328404995124</v>
+      </c>
+      <c r="F86">
+        <v>0.02062118668564615</v>
+      </c>
+      <c r="G86">
+        <v>0.01675707373207853</v>
+      </c>
+      <c r="H86">
+        <v>-0.02596992491045737</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02452743661284726</v>
+        <v>0.01294185630909426</v>
       </c>
       <c r="C87">
-        <v>0.03297092538401909</v>
+        <v>0.06756989272152686</v>
       </c>
       <c r="D87">
-        <v>-0.1382287107992985</v>
+        <v>-0.1295534061971159</v>
       </c>
       <c r="E87">
-        <v>-0.09074005220446539</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.04771224726062465</v>
+      </c>
+      <c r="F87">
+        <v>0.04394603375716132</v>
+      </c>
+      <c r="G87">
+        <v>-0.07947751297358799</v>
+      </c>
+      <c r="H87">
+        <v>-0.006038092237065931</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04482509422521208</v>
+        <v>0.03342574644502991</v>
       </c>
       <c r="C88">
-        <v>0.04934686697290364</v>
+        <v>0.07065415779131015</v>
       </c>
       <c r="D88">
-        <v>-0.000706501286331562</v>
+        <v>-0.01228552288625185</v>
       </c>
       <c r="E88">
-        <v>-0.02299322716343928</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.03204631864815771</v>
+      </c>
+      <c r="F88">
+        <v>0.02155267094409807</v>
+      </c>
+      <c r="G88">
+        <v>0.01223579529187481</v>
+      </c>
+      <c r="H88">
+        <v>-0.01611553293427366</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3464001598793029</v>
+        <v>0.3969635909327754</v>
       </c>
       <c r="C89">
-        <v>-0.294364983735749</v>
+        <v>-0.1627125805722182</v>
       </c>
       <c r="D89">
-        <v>-0.0347684158503862</v>
+        <v>-0.05650714977288279</v>
       </c>
       <c r="E89">
-        <v>-0.1103445479150925</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.03371664491831271</v>
+      </c>
+      <c r="F89">
+        <v>0.06897378013420323</v>
+      </c>
+      <c r="G89">
+        <v>-0.08855080379734205</v>
+      </c>
+      <c r="H89">
+        <v>0.07663607458885295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2765604863958389</v>
+        <v>0.3224414797217042</v>
       </c>
       <c r="C90">
-        <v>-0.2177476529742271</v>
+        <v>-0.1074431286924293</v>
       </c>
       <c r="D90">
-        <v>-0.05931903394797056</v>
+        <v>-0.03333090814606148</v>
       </c>
       <c r="E90">
-        <v>-0.001951298251909846</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.0005225112477758606</v>
+      </c>
+      <c r="F90">
+        <v>-0.008318912838721606</v>
+      </c>
+      <c r="G90">
+        <v>-0.06106511095197172</v>
+      </c>
+      <c r="H90">
+        <v>-0.002546904750203877</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1346666631427807</v>
+        <v>0.06687683888492994</v>
       </c>
       <c r="C91">
-        <v>0.2007638016982089</v>
+        <v>0.202409590981117</v>
       </c>
       <c r="D91">
-        <v>0.09510152678186753</v>
+        <v>0.1033913680630281</v>
       </c>
       <c r="E91">
-        <v>-0.03478648294049207</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08157376047501574</v>
+      </c>
+      <c r="F91">
+        <v>0.05920848071700828</v>
+      </c>
+      <c r="G91">
+        <v>-0.01253695100655574</v>
+      </c>
+      <c r="H91">
+        <v>0.01825614901847365</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.259164398084969</v>
+        <v>0.3352066164336092</v>
       </c>
       <c r="C92">
-        <v>-0.2432139970899816</v>
+        <v>-0.1495117626346223</v>
       </c>
       <c r="D92">
-        <v>0.05356636150123194</v>
+        <v>-0.0178403560699579</v>
       </c>
       <c r="E92">
-        <v>-0.01326631892700524</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06812074819052849</v>
+      </c>
+      <c r="F92">
+        <v>0.03611436018196423</v>
+      </c>
+      <c r="G92">
+        <v>0.01264863990274898</v>
+      </c>
+      <c r="H92">
+        <v>-0.1338246188575062</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2960179165160409</v>
+        <v>0.3295087522934249</v>
       </c>
       <c r="C93">
-        <v>-0.2268222137894375</v>
+        <v>-0.1226686743984091</v>
       </c>
       <c r="D93">
-        <v>0.02382810216098573</v>
+        <v>0.02429247121666918</v>
       </c>
       <c r="E93">
-        <v>0.007008703798544225</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01324229063145545</v>
+      </c>
+      <c r="F93">
+        <v>0.01070500385702058</v>
+      </c>
+      <c r="G93">
+        <v>0.02839816033723133</v>
+      </c>
+      <c r="H93">
+        <v>-0.03075546130819988</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.250468358446083</v>
+        <v>0.1209536822247687</v>
       </c>
       <c r="C94">
-        <v>0.285316118803029</v>
+        <v>0.3215460572479054</v>
       </c>
       <c r="D94">
-        <v>0.2156116743668214</v>
+        <v>0.3510299461507269</v>
       </c>
       <c r="E94">
-        <v>0.3068932285084247</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1261837553814684</v>
+      </c>
+      <c r="F94">
+        <v>-0.1516834788014368</v>
+      </c>
+      <c r="G94">
+        <v>-0.2823359180946304</v>
+      </c>
+      <c r="H94">
+        <v>-0.118745760098886</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01126797103004996</v>
+        <v>0.01806194842382236</v>
       </c>
       <c r="C95">
-        <v>0.04689335821569057</v>
+        <v>0.07514137237374939</v>
       </c>
       <c r="D95">
-        <v>-0.1092085789722088</v>
+        <v>-0.1340097927963653</v>
       </c>
       <c r="E95">
-        <v>-0.05317403267380095</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.0934921803273687</v>
+      </c>
+      <c r="F95">
+        <v>-0.03344132600575604</v>
+      </c>
+      <c r="G95">
+        <v>0.0693381233324066</v>
+      </c>
+      <c r="H95">
+        <v>-0.04191712188753349</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002471390633085011</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001275030775769903</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-8.883835906017416e-05</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.004231774570211278</v>
+      </c>
+      <c r="F97">
+        <v>0.0005022222811412044</v>
+      </c>
+      <c r="G97">
+        <v>-0.001132618276277336</v>
+      </c>
+      <c r="H97">
+        <v>-0.005203318636334458</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1464526288306084</v>
+        <v>0.1351418603035396</v>
       </c>
       <c r="C98">
-        <v>0.1018572454891367</v>
+        <v>0.1626819998549885</v>
       </c>
       <c r="D98">
-        <v>-0.1294673791424723</v>
+        <v>-0.02044996168699659</v>
       </c>
       <c r="E98">
-        <v>0.1114884978418677</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1833686140822528</v>
+      </c>
+      <c r="F98">
+        <v>-0.2423318728298331</v>
+      </c>
+      <c r="G98">
+        <v>0.2972193935622062</v>
+      </c>
+      <c r="H98">
+        <v>0.1365887962841253</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.002654873889528691</v>
+        <v>0.002659515323227929</v>
       </c>
       <c r="C101">
-        <v>0.02032663119268925</v>
+        <v>0.04104471381133087</v>
       </c>
       <c r="D101">
-        <v>-0.07606632664462387</v>
+        <v>-0.09500785432274413</v>
       </c>
       <c r="E101">
-        <v>-0.04788796658419935</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.09745599287819934</v>
+      </c>
+      <c r="F101">
+        <v>0.03512373774881574</v>
+      </c>
+      <c r="G101">
+        <v>-0.01758472716461807</v>
+      </c>
+      <c r="H101">
+        <v>0.04201208903213216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.08911985949646868</v>
+        <v>0.02229175782603687</v>
       </c>
       <c r="C102">
-        <v>0.1675020349381597</v>
+        <v>0.1390156541716854</v>
       </c>
       <c r="D102">
-        <v>0.01519131876456554</v>
+        <v>0.09517600624564364</v>
       </c>
       <c r="E102">
-        <v>0.100925476804707</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.05511623271203838</v>
+      </c>
+      <c r="F102">
+        <v>-0.08311134194025045</v>
+      </c>
+      <c r="G102">
+        <v>-0.01516787186433871</v>
+      </c>
+      <c r="H102">
+        <v>0.02510456395441455</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
